--- a/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -5194,13 +5194,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>25840</v>
+        <v>25841</v>
       </c>
       <c r="D94" t="n">
         <v>4834</v>
       </c>
       <c r="E94" t="n">
-        <v>122618879</v>
+        <v>122619668</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>186357</v>
+        <v>186361</v>
       </c>
       <c r="D100" t="n">
         <v>37749</v>
       </c>
       <c r="E100" t="n">
-        <v>306312150</v>
+        <v>306314845</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>84959</v>
+        <v>84960</v>
       </c>
       <c r="D105" t="n">
         <v>16087</v>
       </c>
       <c r="E105" t="n">
-        <v>401645674</v>
+        <v>401647390</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>62514</v>
+        <v>62516</v>
       </c>
       <c r="D108" t="n">
         <v>10954</v>
       </c>
       <c r="E108" t="n">
-        <v>340490180</v>
+        <v>340502701</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -20443,13 +20443,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>5431</v>
+        <v>5433</v>
       </c>
       <c r="D393" t="n">
         <v>1019</v>
       </c>
       <c r="E393" t="n">
-        <v>28230358</v>
+        <v>28232237</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71266</v>
+        <v>71267</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110295157</v>
+        <v>110296657</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18857</v>
+        <v>18858</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75163013</v>
+        <v>75166047</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73747</v>
+        <v>73749</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>386472202</v>
+        <v>386489016</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74983</v>
+        <v>74984</v>
       </c>
       <c r="D474" t="n">
         <v>11549</v>
       </c>
       <c r="E474" t="n">
-        <v>434922217</v>
+        <v>434931632</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416632</v>
+        <v>416637</v>
       </c>
       <c r="D477" t="n">
         <v>70498</v>
       </c>
       <c r="E477" t="n">
-        <v>724771273</v>
+        <v>724789528</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291875</v>
+        <v>291906</v>
       </c>
       <c r="D484" t="n">
         <v>42564</v>
       </c>
       <c r="E484" t="n">
-        <v>1767734486</v>
+        <v>1767978145</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230516</v>
+        <v>230544</v>
       </c>
       <c r="D487" t="n">
         <v>33847</v>
       </c>
       <c r="E487" t="n">
-        <v>1816060513</v>
+        <v>1816575326</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12246</v>
+        <v>12248</v>
       </c>
       <c r="D491" t="n">
         <v>1838</v>
       </c>
       <c r="E491" t="n">
-        <v>75473984</v>
+        <v>75585376</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71169</v>
+        <v>71172</v>
       </c>
       <c r="D511" t="n">
         <v>10923</v>
       </c>
       <c r="E511" t="n">
-        <v>286732560</v>
+        <v>286745637</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39928</v>
+        <v>39929</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60363412</v>
+        <v>60367248</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18453</v>
+        <v>18454</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>72760118</v>
+        <v>72765909</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12399</v>
+        <v>12401</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40081638</v>
+        <v>40224583</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -29011,13 +29011,13 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="D561" t="n">
         <v>682</v>
       </c>
       <c r="E561" t="n">
-        <v>12505869</v>
+        <v>12512655</v>
       </c>
       <c r="F561" t="inlineStr">
         <is>
@@ -29623,13 +29623,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D573" t="n">
         <v>319</v>
       </c>
       <c r="E573" t="n">
-        <v>9436652</v>
+        <v>9445286</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -38701,13 +38701,13 @@
         </is>
       </c>
       <c r="C751" t="n">
-        <v>18144</v>
+        <v>18145</v>
       </c>
       <c r="D751" t="n">
         <v>3259</v>
       </c>
       <c r="E751" t="n">
-        <v>83154544</v>
+        <v>83163396</v>
       </c>
       <c r="F751" t="inlineStr">
         <is>
